--- a/network/FF2test/FFP_n20_no5.xlsx
+++ b/network/FF2test/FFP_n20_no5.xlsx
@@ -8,11 +8,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="firefighter_route" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fire_route" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="coordinates" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ff_source" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fire_source" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="coordinates" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ff_source" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fire_source" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fire_route" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,16 +470,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>297</v>
+        <v>645.6972975009265</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -487,16 +487,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>297</v>
+        <v>645.6972975009265</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -504,16 +504,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>408.5927067386299</v>
+        <v>363.1886562105155</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -521,16 +521,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>408.5927067386299</v>
+        <v>363.1886562105155</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>300.5411785429744</v>
+        <v>309.0064724241225</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -555,16 +555,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>300.5411785429744</v>
+        <v>309.0064724241225</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>128.949602558519</v>
+        <v>386.731172780266</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -589,16 +589,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>128.949602558519</v>
+        <v>386.731172780266</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -606,16 +606,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>355.178828197853</v>
+        <v>554.3870489107768</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>355.178828197853</v>
+        <v>554.3870489107768</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -640,16 +640,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>272.0459520007603</v>
+        <v>277.2183255125822</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -657,16 +657,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>272.0459520007603</v>
+        <v>277.2183255125822</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -674,16 +674,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>273.1483113621609</v>
+        <v>402.7319207611932</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>273.1483113621609</v>
+        <v>402.7319207611932</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -708,16 +708,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>98.99494936611666</v>
+        <v>199.1506967098032</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -725,16 +725,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>98.99494936611666</v>
+        <v>199.1506967098032</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -742,16 +742,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>357.8407467016578</v>
+        <v>263.6854186336438</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>357.8407467016578</v>
+        <v>263.6854186336438</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -776,16 +776,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>16</v>
+      </c>
+      <c r="D20" t="n">
+        <v>210.0690362714124</v>
+      </c>
+      <c r="E20" t="n">
         <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19</v>
-      </c>
-      <c r="D20" t="n">
-        <v>289.2144533041183</v>
-      </c>
-      <c r="E20" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -793,16 +793,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>210.0690362714124</v>
+      </c>
+      <c r="E21" t="n">
         <v>5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>289.2144533041183</v>
-      </c>
-      <c r="E21" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -810,16 +810,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>331.1193138432127</v>
+        <v>230.6382448771235</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -827,16 +827,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>331.1193138432127</v>
+        <v>230.6382448771235</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>184.5453873712372</v>
+        <v>172.8178231549049</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -861,16 +861,16 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>184.5453873712372</v>
+        <v>172.8178231549049</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -878,16 +878,16 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>219.9681795169474</v>
+        <v>342.7331323347657</v>
       </c>
       <c r="E26" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -895,16 +895,16 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>219.9681795169474</v>
+        <v>342.7331323347657</v>
       </c>
       <c r="E27" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>278.6485241303101</v>
+        <v>55.60575509783138</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -929,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
         <v>4</v>
       </c>
-      <c r="C29" t="n">
-        <v>2</v>
-      </c>
       <c r="D29" t="n">
-        <v>278.6485241303101</v>
+        <v>55.60575509783138</v>
       </c>
       <c r="E29" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -946,16 +946,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
         <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>337.25064862799</v>
+        <v>202.711617821969</v>
       </c>
       <c r="E30" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -966,13 +966,13 @@
         <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>337.25064862799</v>
+        <v>202.711617821969</v>
       </c>
       <c r="E31" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -980,16 +980,16 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
-        <v>266.7208278331484</v>
+        <v>400.9214386884293</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
@@ -997,16 +997,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>266.7208278331484</v>
+        <v>400.9214386884293</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -1014,16 +1014,16 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C34" t="n">
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>237.7414562082095</v>
+        <v>337.5351833513063</v>
       </c>
       <c r="E34" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1034,13 +1034,13 @@
         <v>12</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>237.7414562082095</v>
+        <v>337.5351833513063</v>
       </c>
       <c r="E35" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>380.7571404451924</v>
+        <v>116.2110149684616</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1065,16 +1065,16 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>380.7571404451924</v>
+        <v>116.2110149684616</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1082,16 +1082,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>627.936302502093</v>
+        <v>257.5131064625643</v>
       </c>
       <c r="E38" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -1099,16 +1099,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>627.936302502093</v>
+        <v>257.5131064625643</v>
       </c>
       <c r="E39" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -1116,16 +1116,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>295.5300323148224</v>
+        <v>107.2240644631605</v>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1133,16 +1133,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>295.5300323148224</v>
+        <v>107.2240644631605</v>
       </c>
       <c r="E41" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1150,16 +1150,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D42" t="n">
-        <v>589.0212220285446</v>
+        <v>87.04596486914255</v>
       </c>
       <c r="E42" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1167,16 +1167,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>589.0212220285446</v>
+        <v>87.04596486914255</v>
       </c>
       <c r="E43" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1184,16 +1184,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D44" t="n">
-        <v>212.6805115660577</v>
+        <v>250.3916931529479</v>
       </c>
       <c r="E44" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1201,16 +1201,16 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>212.6805115660577</v>
+        <v>250.3916931529479</v>
       </c>
       <c r="E45" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -1218,16 +1218,16 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" t="n">
-        <v>96.89685237405806</v>
+        <v>512.1640362227711</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
@@ -1235,16 +1235,16 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>96.89685237405806</v>
+        <v>512.1640362227711</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -1252,16 +1252,16 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D48" t="n">
-        <v>337.5973933548658</v>
+        <v>397.4430776853461</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -1269,16 +1269,16 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>337.5973933548658</v>
+        <v>397.4430776853461</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -1286,16 +1286,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>365.3847287449217</v>
+        <v>88.10221336606703</v>
       </c>
       <c r="E50" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -1303,16 +1303,16 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>365.3847287449217</v>
+        <v>88.10221336606703</v>
       </c>
       <c r="E51" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -1320,16 +1320,16 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C52" t="n">
         <v>20</v>
       </c>
       <c r="D52" t="n">
-        <v>108.664621657649</v>
+        <v>158.2403235588199</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -1340,13 +1340,13 @@
         <v>20</v>
       </c>
       <c r="C53" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>108.664621657649</v>
+        <v>158.2403235588199</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -1354,13 +1354,13 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="n">
         <v>8</v>
       </c>
-      <c r="C54" t="n">
-        <v>16</v>
-      </c>
       <c r="D54" t="n">
-        <v>128.8448679614365</v>
+        <v>124.8879497789919</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -1371,13 +1371,13 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C55" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>128.8448679614365</v>
+        <v>124.8879497789919</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -1388,16 +1388,16 @@
         <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>76.48529270389177</v>
+        <v>106.8924693325026</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>76.48529270389177</v>
+        <v>106.8924693325026</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -1422,16 +1422,16 @@
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C58" t="n">
+        <v>16</v>
+      </c>
+      <c r="D58" t="n">
+        <v>396.1275047254356</v>
+      </c>
+      <c r="E58" t="n">
         <v>20</v>
-      </c>
-      <c r="D58" t="n">
-        <v>379.6761778147268</v>
-      </c>
-      <c r="E58" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -1439,16 +1439,16 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
+        <v>16</v>
+      </c>
+      <c r="C59" t="n">
+        <v>14</v>
+      </c>
+      <c r="D59" t="n">
+        <v>396.1275047254356</v>
+      </c>
+      <c r="E59" t="n">
         <v>20</v>
-      </c>
-      <c r="C59" t="n">
-        <v>5</v>
-      </c>
-      <c r="D59" t="n">
-        <v>379.6761778147268</v>
-      </c>
-      <c r="E59" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -1456,16 +1456,16 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D60" t="n">
-        <v>119.9416524815295</v>
+        <v>258.9362855993729</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D61" t="n">
-        <v>119.9416524815295</v>
+        <v>258.9362855993729</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -1490,16 +1490,16 @@
         <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D62" t="n">
-        <v>322.8699428562529</v>
+        <v>276.0072462816873</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -1507,50 +1507,50 @@
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D63" t="n">
-        <v>322.8699428562529</v>
+        <v>276.0072462816873</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C64" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D64" t="n">
-        <v>340.12350697945</v>
+        <v>645.6972975009265</v>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D65" t="n">
-        <v>340.12350697945</v>
+        <v>645.6972975009265</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
@@ -1558,16 +1558,16 @@
         <v>2</v>
       </c>
       <c r="B66" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D66" t="n">
+        <v>363.1886562105155</v>
+      </c>
+      <c r="E66" t="n">
         <v>8</v>
-      </c>
-      <c r="C66" t="n">
-        <v>18</v>
-      </c>
-      <c r="D66" t="n">
-        <v>297</v>
-      </c>
-      <c r="E66" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="67">
@@ -1575,16 +1575,16 @@
         <v>2</v>
       </c>
       <c r="B67" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C67" t="n">
+        <v>5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>363.1886562105155</v>
+      </c>
+      <c r="E67" t="n">
         <v>8</v>
-      </c>
-      <c r="D67" t="n">
-        <v>297</v>
-      </c>
-      <c r="E67" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="68">
@@ -1592,16 +1592,16 @@
         <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>408.5927067386299</v>
+        <v>309.0064724241225</v>
       </c>
       <c r="E68" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -1609,16 +1609,16 @@
         <v>2</v>
       </c>
       <c r="B69" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>408.5927067386299</v>
+        <v>309.0064724241225</v>
       </c>
       <c r="E69" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -1626,16 +1626,16 @@
         <v>2</v>
       </c>
       <c r="B70" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D70" t="n">
-        <v>300.5411785429744</v>
+        <v>386.731172780266</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
@@ -1643,16 +1643,16 @@
         <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C71" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D71" t="n">
-        <v>300.5411785429744</v>
+        <v>386.731172780266</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
@@ -1660,16 +1660,16 @@
         <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C72" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D72" t="n">
-        <v>128.949602558519</v>
+        <v>554.3870489107768</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
@@ -1677,16 +1677,16 @@
         <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D73" t="n">
-        <v>128.949602558519</v>
+        <v>554.3870489107768</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
@@ -1694,16 +1694,16 @@
         <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="n">
-        <v>355.178828197853</v>
+        <v>277.2183255125822</v>
       </c>
       <c r="E74" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -1711,16 +1711,16 @@
         <v>2</v>
       </c>
       <c r="B75" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>355.178828197853</v>
+        <v>277.2183255125822</v>
       </c>
       <c r="E75" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -1728,16 +1728,16 @@
         <v>2</v>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C76" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D76" t="n">
-        <v>272.0459520007603</v>
+        <v>402.7319207611932</v>
       </c>
       <c r="E76" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77">
@@ -1745,16 +1745,16 @@
         <v>2</v>
       </c>
       <c r="B77" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D77" t="n">
-        <v>272.0459520007603</v>
+        <v>402.7319207611932</v>
       </c>
       <c r="E77" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -1762,16 +1762,16 @@
         <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D78" t="n">
-        <v>273.1483113621609</v>
+        <v>199.1506967098032</v>
       </c>
       <c r="E78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -1779,16 +1779,16 @@
         <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>273.1483113621609</v>
+        <v>199.1506967098032</v>
       </c>
       <c r="E79" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -1796,16 +1796,16 @@
         <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D80" t="n">
-        <v>98.99494936611666</v>
+        <v>263.6854186336438</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -1813,16 +1813,16 @@
         <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C81" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>98.99494936611666</v>
+        <v>263.6854186336438</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -1830,16 +1830,16 @@
         <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C82" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D82" t="n">
-        <v>357.8407467016578</v>
+        <v>210.0690362714124</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
@@ -1847,16 +1847,16 @@
         <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C83" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>357.8407467016578</v>
+        <v>210.0690362714124</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
@@ -1864,16 +1864,16 @@
         <v>2</v>
       </c>
       <c r="B84" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D84" t="n">
-        <v>289.2144533041183</v>
+        <v>230.6382448771235</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -1881,16 +1881,16 @@
         <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D85" t="n">
-        <v>289.2144533041183</v>
+        <v>230.6382448771235</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -1898,16 +1898,16 @@
         <v>2</v>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
         <v>20</v>
       </c>
       <c r="D86" t="n">
-        <v>331.1193138432127</v>
+        <v>172.8178231549049</v>
       </c>
       <c r="E86" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
@@ -1918,13 +1918,13 @@
         <v>20</v>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
-        <v>331.1193138432127</v>
+        <v>172.8178231549049</v>
       </c>
       <c r="E87" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
@@ -1932,16 +1932,16 @@
         <v>2</v>
       </c>
       <c r="B88" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C88" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>184.5453873712372</v>
+        <v>342.7331323347657</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -1949,16 +1949,16 @@
         <v>2</v>
       </c>
       <c r="B89" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>184.5453873712372</v>
+        <v>342.7331323347657</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -1966,16 +1966,16 @@
         <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="n">
-        <v>219.9681795169474</v>
+        <v>55.60575509783138</v>
       </c>
       <c r="E90" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -1983,16 +1983,16 @@
         <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>219.9681795169474</v>
+        <v>55.60575509783138</v>
       </c>
       <c r="E91" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -2000,16 +2000,16 @@
         <v>2</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>278.6485241303101</v>
+        <v>202.711617821969</v>
       </c>
       <c r="E92" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
@@ -2017,16 +2017,16 @@
         <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>278.6485241303101</v>
+        <v>202.711617821969</v>
       </c>
       <c r="E93" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -2034,16 +2034,16 @@
         <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C94" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D94" t="n">
-        <v>337.25064862799</v>
+        <v>400.9214386884293</v>
       </c>
       <c r="E94" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
@@ -2051,16 +2051,16 @@
         <v>2</v>
       </c>
       <c r="B95" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>337.25064862799</v>
+        <v>400.9214386884293</v>
       </c>
       <c r="E95" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
@@ -2071,13 +2071,13 @@
         <v>11</v>
       </c>
       <c r="C96" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>266.7208278331484</v>
+        <v>337.5351833513063</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -2085,16 +2085,16 @@
         <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C97" t="n">
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>266.7208278331484</v>
+        <v>337.5351833513063</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -2105,13 +2105,13 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>237.7414562082095</v>
+        <v>116.2110149684616</v>
       </c>
       <c r="E98" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -2119,16 +2119,16 @@
         <v>2</v>
       </c>
       <c r="B99" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>237.7414562082095</v>
+        <v>116.2110149684616</v>
       </c>
       <c r="E99" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
@@ -2139,13 +2139,13 @@
         <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D100" t="n">
-        <v>380.7571404451924</v>
+        <v>257.5131064625643</v>
       </c>
       <c r="E100" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
@@ -2153,16 +2153,16 @@
         <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C101" t="n">
         <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>380.7571404451924</v>
+        <v>257.5131064625643</v>
       </c>
       <c r="E101" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
@@ -2173,13 +2173,13 @@
         <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D102" t="n">
-        <v>627.936302502093</v>
+        <v>107.2240644631605</v>
       </c>
       <c r="E102" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
@@ -2187,16 +2187,16 @@
         <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C103" t="n">
         <v>3</v>
       </c>
       <c r="D103" t="n">
-        <v>627.936302502093</v>
+        <v>107.2240644631605</v>
       </c>
       <c r="E103" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
@@ -2207,13 +2207,13 @@
         <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D104" t="n">
-        <v>295.5300323148224</v>
+        <v>87.04596486914255</v>
       </c>
       <c r="E104" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
@@ -2221,16 +2221,16 @@
         <v>2</v>
       </c>
       <c r="B105" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C105" t="n">
         <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>295.5300323148224</v>
+        <v>87.04596486914255</v>
       </c>
       <c r="E105" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
@@ -2238,16 +2238,16 @@
         <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C106" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D106" t="n">
-        <v>589.0212220285446</v>
+        <v>250.3916931529479</v>
       </c>
       <c r="E106" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
@@ -2255,16 +2255,16 @@
         <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C107" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D107" t="n">
-        <v>589.0212220285446</v>
+        <v>250.3916931529479</v>
       </c>
       <c r="E107" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -2272,16 +2272,16 @@
         <v>2</v>
       </c>
       <c r="B108" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C108" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" t="n">
-        <v>212.6805115660577</v>
+        <v>512.1640362227711</v>
       </c>
       <c r="E108" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109">
@@ -2289,16 +2289,16 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D109" t="n">
-        <v>212.6805115660577</v>
+        <v>512.1640362227711</v>
       </c>
       <c r="E109" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
@@ -2306,16 +2306,16 @@
         <v>2</v>
       </c>
       <c r="B110" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D110" t="n">
-        <v>96.89685237405806</v>
+        <v>397.4430776853461</v>
       </c>
       <c r="E110" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
@@ -2323,16 +2323,16 @@
         <v>2</v>
       </c>
       <c r="B111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C111" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D111" t="n">
-        <v>96.89685237405806</v>
+        <v>397.4430776853461</v>
       </c>
       <c r="E111" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
@@ -2340,16 +2340,16 @@
         <v>2</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C112" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D112" t="n">
-        <v>337.5973933548658</v>
+        <v>88.10221336606703</v>
       </c>
       <c r="E112" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
@@ -2357,16 +2357,16 @@
         <v>2</v>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D113" t="n">
-        <v>337.5973933548658</v>
+        <v>88.10221336606703</v>
       </c>
       <c r="E113" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
@@ -2374,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C114" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D114" t="n">
-        <v>365.3847287449217</v>
+        <v>158.2403235588199</v>
       </c>
       <c r="E114" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
@@ -2391,16 +2391,16 @@
         <v>2</v>
       </c>
       <c r="B115" t="n">
+        <v>20</v>
+      </c>
+      <c r="C115" t="n">
         <v>9</v>
       </c>
-      <c r="C115" t="n">
-        <v>2</v>
-      </c>
       <c r="D115" t="n">
-        <v>365.3847287449217</v>
+        <v>158.2403235588199</v>
       </c>
       <c r="E115" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
@@ -2408,16 +2408,16 @@
         <v>2</v>
       </c>
       <c r="B116" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>108.664621657649</v>
+        <v>124.8879497789919</v>
       </c>
       <c r="E116" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
@@ -2425,16 +2425,16 @@
         <v>2</v>
       </c>
       <c r="B117" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C117" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D117" t="n">
-        <v>108.664621657649</v>
+        <v>124.8879497789919</v>
       </c>
       <c r="E117" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
@@ -2442,16 +2442,16 @@
         <v>2</v>
       </c>
       <c r="B118" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D118" t="n">
-        <v>128.8448679614365</v>
+        <v>106.8924693325026</v>
       </c>
       <c r="E118" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
@@ -2459,16 +2459,16 @@
         <v>2</v>
       </c>
       <c r="B119" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C119" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D119" t="n">
-        <v>128.8448679614365</v>
+        <v>106.8924693325026</v>
       </c>
       <c r="E119" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
@@ -2476,16 +2476,16 @@
         <v>2</v>
       </c>
       <c r="B120" t="n">
+        <v>14</v>
+      </c>
+      <c r="C120" t="n">
+        <v>16</v>
+      </c>
+      <c r="D120" t="n">
+        <v>396.1275047254356</v>
+      </c>
+      <c r="E120" t="n">
         <v>13</v>
-      </c>
-      <c r="C120" t="n">
-        <v>18</v>
-      </c>
-      <c r="D120" t="n">
-        <v>76.48529270389177</v>
-      </c>
-      <c r="E120" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="121">
@@ -2493,16 +2493,16 @@
         <v>2</v>
       </c>
       <c r="B121" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C121" t="n">
+        <v>14</v>
+      </c>
+      <c r="D121" t="n">
+        <v>396.1275047254356</v>
+      </c>
+      <c r="E121" t="n">
         <v>13</v>
-      </c>
-      <c r="D121" t="n">
-        <v>76.48529270389177</v>
-      </c>
-      <c r="E121" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="122">
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="B122" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C122" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D122" t="n">
-        <v>379.6761778147268</v>
+        <v>258.9362855993729</v>
       </c>
       <c r="E122" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -2527,16 +2527,16 @@
         <v>2</v>
       </c>
       <c r="B123" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C123" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D123" t="n">
-        <v>379.6761778147268</v>
+        <v>258.9362855993729</v>
       </c>
       <c r="E123" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
@@ -2544,16 +2544,16 @@
         <v>2</v>
       </c>
       <c r="B124" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C124" t="n">
+        <v>19</v>
+      </c>
+      <c r="D124" t="n">
+        <v>276.0072462816873</v>
+      </c>
+      <c r="E124" t="n">
         <v>15</v>
-      </c>
-      <c r="D124" t="n">
-        <v>119.9416524815295</v>
-      </c>
-      <c r="E124" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="125">
@@ -2561,84 +2561,16 @@
         <v>2</v>
       </c>
       <c r="B125" t="n">
+        <v>19</v>
+      </c>
+      <c r="C125" t="n">
+        <v>16</v>
+      </c>
+      <c r="D125" t="n">
+        <v>276.0072462816873</v>
+      </c>
+      <c r="E125" t="n">
         <v>15</v>
-      </c>
-      <c r="C125" t="n">
-        <v>6</v>
-      </c>
-      <c r="D125" t="n">
-        <v>119.9416524815295</v>
-      </c>
-      <c r="E125" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>2</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1</v>
-      </c>
-      <c r="C126" t="n">
-        <v>4</v>
-      </c>
-      <c r="D126" t="n">
-        <v>322.8699428562529</v>
-      </c>
-      <c r="E126" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>2</v>
-      </c>
-      <c r="B127" t="n">
-        <v>4</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>322.8699428562529</v>
-      </c>
-      <c r="E127" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>2</v>
-      </c>
-      <c r="B128" t="n">
-        <v>2</v>
-      </c>
-      <c r="C128" t="n">
-        <v>11</v>
-      </c>
-      <c r="D128" t="n">
-        <v>340.12350697945</v>
-      </c>
-      <c r="E128" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>2</v>
-      </c>
-      <c r="B129" t="n">
-        <v>11</v>
-      </c>
-      <c r="C129" t="n">
-        <v>2</v>
-      </c>
-      <c r="D129" t="n">
-        <v>340.12350697945</v>
-      </c>
-      <c r="E129" t="n">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2647,1167 +2579,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D81"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>j</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>travel time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
-        <v>19</v>
-      </c>
-      <c r="C2" t="n">
-        <v>302.0347662107791</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>19</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>302.0347662107791</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>18</v>
-      </c>
-      <c r="C4" t="n">
-        <v>297</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>18</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>297</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>408.5927067386299</v>
-      </c>
-      <c r="D6" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>408.5927067386299</v>
-      </c>
-      <c r="D7" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
-        <v>14</v>
-      </c>
-      <c r="C8" t="n">
-        <v>300.5411785429744</v>
-      </c>
-      <c r="D8" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>14</v>
-      </c>
-      <c r="B9" t="n">
-        <v>13</v>
-      </c>
-      <c r="C9" t="n">
-        <v>300.5411785429744</v>
-      </c>
-      <c r="D9" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>128.949602558519</v>
-      </c>
-      <c r="D10" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>128.949602558519</v>
-      </c>
-      <c r="D11" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" t="n">
-        <v>14</v>
-      </c>
-      <c r="C12" t="n">
-        <v>355.178828197853</v>
-      </c>
-      <c r="D12" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>14</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>355.178828197853</v>
-      </c>
-      <c r="D13" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>16</v>
-      </c>
-      <c r="C14" t="n">
-        <v>272.0459520007603</v>
-      </c>
-      <c r="D14" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>16</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>272.0459520007603</v>
-      </c>
-      <c r="D15" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>273.1483113621609</v>
-      </c>
-      <c r="D16" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>3</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>273.1483113621609</v>
-      </c>
-      <c r="D17" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>15</v>
-      </c>
-      <c r="B18" t="n">
-        <v>20</v>
-      </c>
-      <c r="C18" t="n">
-        <v>357.8407467016578</v>
-      </c>
-      <c r="D18" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>20</v>
-      </c>
-      <c r="B19" t="n">
-        <v>15</v>
-      </c>
-      <c r="C19" t="n">
-        <v>357.8407467016578</v>
-      </c>
-      <c r="D19" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>289.2144533041183</v>
-      </c>
-      <c r="D20" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>289.2144533041183</v>
-      </c>
-      <c r="D21" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>6</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>331.1193138432127</v>
-      </c>
-      <c r="D22" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>20</v>
-      </c>
-      <c r="B23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C23" t="n">
-        <v>331.1193138432127</v>
-      </c>
-      <c r="D23" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="n">
-        <v>9</v>
-      </c>
-      <c r="C24" t="n">
-        <v>219.9681795169474</v>
-      </c>
-      <c r="D24" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>9</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>219.9681795169474</v>
-      </c>
-      <c r="D25" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>2</v>
-      </c>
-      <c r="B26" t="n">
-        <v>4</v>
-      </c>
-      <c r="C26" t="n">
-        <v>278.6485241303101</v>
-      </c>
-      <c r="D26" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>4</v>
-      </c>
-      <c r="B27" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" t="n">
-        <v>278.6485241303101</v>
-      </c>
-      <c r="D27" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>11</v>
-      </c>
-      <c r="B28" t="n">
-        <v>19</v>
-      </c>
-      <c r="C28" t="n">
-        <v>266.7208278331484</v>
-      </c>
-      <c r="D28" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>19</v>
-      </c>
-      <c r="B29" t="n">
-        <v>11</v>
-      </c>
-      <c r="C29" t="n">
-        <v>266.7208278331484</v>
-      </c>
-      <c r="D29" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="n">
-        <v>12</v>
-      </c>
-      <c r="C30" t="n">
-        <v>237.7414562082095</v>
-      </c>
-      <c r="D30" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>12</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>237.7414562082095</v>
-      </c>
-      <c r="D31" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2</v>
-      </c>
-      <c r="B32" t="n">
-        <v>19</v>
-      </c>
-      <c r="C32" t="n">
-        <v>380.7571404451924</v>
-      </c>
-      <c r="D32" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>19</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" t="n">
-        <v>380.7571404451924</v>
-      </c>
-      <c r="D33" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>3</v>
-      </c>
-      <c r="B34" t="n">
-        <v>18</v>
-      </c>
-      <c r="C34" t="n">
-        <v>627.936302502093</v>
-      </c>
-      <c r="D34" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>18</v>
-      </c>
-      <c r="B35" t="n">
-        <v>3</v>
-      </c>
-      <c r="C35" t="n">
-        <v>627.936302502093</v>
-      </c>
-      <c r="D35" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" t="n">
-        <v>16</v>
-      </c>
-      <c r="C36" t="n">
-        <v>295.5300323148224</v>
-      </c>
-      <c r="D36" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>16</v>
-      </c>
-      <c r="B37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" t="n">
-        <v>295.5300323148224</v>
-      </c>
-      <c r="D37" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>7</v>
-      </c>
-      <c r="B38" t="n">
-        <v>12</v>
-      </c>
-      <c r="C38" t="n">
-        <v>351.1153656563609</v>
-      </c>
-      <c r="D38" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>12</v>
-      </c>
-      <c r="B39" t="n">
-        <v>7</v>
-      </c>
-      <c r="C39" t="n">
-        <v>351.1153656563609</v>
-      </c>
-      <c r="D39" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>17</v>
-      </c>
-      <c r="B40" t="n">
-        <v>20</v>
-      </c>
-      <c r="C40" t="n">
-        <v>589.0212220285446</v>
-      </c>
-      <c r="D40" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n">
-        <v>17</v>
-      </c>
-      <c r="C41" t="n">
-        <v>589.0212220285446</v>
-      </c>
-      <c r="D41" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>6</v>
-      </c>
-      <c r="B42" t="n">
-        <v>13</v>
-      </c>
-      <c r="C42" t="n">
-        <v>212.6805115660577</v>
-      </c>
-      <c r="D42" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>13</v>
-      </c>
-      <c r="B43" t="n">
-        <v>6</v>
-      </c>
-      <c r="C43" t="n">
-        <v>212.6805115660577</v>
-      </c>
-      <c r="D43" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>9</v>
-      </c>
-      <c r="B44" t="n">
-        <v>12</v>
-      </c>
-      <c r="C44" t="n">
-        <v>96.89685237405806</v>
-      </c>
-      <c r="D44" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>12</v>
-      </c>
-      <c r="B45" t="n">
-        <v>9</v>
-      </c>
-      <c r="C45" t="n">
-        <v>96.89685237405806</v>
-      </c>
-      <c r="D45" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="n">
-        <v>2</v>
-      </c>
-      <c r="C46" t="n">
-        <v>337.5973933548658</v>
-      </c>
-      <c r="D46" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>2</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>337.5973933548658</v>
-      </c>
-      <c r="D47" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>2</v>
-      </c>
-      <c r="B48" t="n">
-        <v>9</v>
-      </c>
-      <c r="C48" t="n">
-        <v>365.3847287449217</v>
-      </c>
-      <c r="D48" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>9</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2</v>
-      </c>
-      <c r="C49" t="n">
-        <v>365.3847287449217</v>
-      </c>
-      <c r="D49" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>14</v>
-      </c>
-      <c r="B50" t="n">
-        <v>20</v>
-      </c>
-      <c r="C50" t="n">
-        <v>108.664621657649</v>
-      </c>
-      <c r="D50" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>20</v>
-      </c>
-      <c r="B51" t="n">
-        <v>14</v>
-      </c>
-      <c r="C51" t="n">
-        <v>108.664621657649</v>
-      </c>
-      <c r="D51" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>16</v>
-      </c>
-      <c r="B52" t="n">
-        <v>19</v>
-      </c>
-      <c r="C52" t="n">
-        <v>306.6235476932586</v>
-      </c>
-      <c r="D52" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>19</v>
-      </c>
-      <c r="B53" t="n">
-        <v>16</v>
-      </c>
-      <c r="C53" t="n">
-        <v>306.6235476932586</v>
-      </c>
-      <c r="D53" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>7</v>
-      </c>
-      <c r="B54" t="n">
-        <v>11</v>
-      </c>
-      <c r="C54" t="n">
-        <v>43.46262762420146</v>
-      </c>
-      <c r="D54" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>11</v>
-      </c>
-      <c r="B55" t="n">
-        <v>7</v>
-      </c>
-      <c r="C55" t="n">
-        <v>43.46262762420146</v>
-      </c>
-      <c r="D55" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>7</v>
-      </c>
-      <c r="B56" t="n">
-        <v>17</v>
-      </c>
-      <c r="C56" t="n">
-        <v>531.3473440227211</v>
-      </c>
-      <c r="D56" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>17</v>
-      </c>
-      <c r="B57" t="n">
-        <v>7</v>
-      </c>
-      <c r="C57" t="n">
-        <v>531.3473440227211</v>
-      </c>
-      <c r="D57" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>17</v>
-      </c>
-      <c r="B58" t="n">
-        <v>19</v>
-      </c>
-      <c r="C58" t="n">
-        <v>256.1581542719263</v>
-      </c>
-      <c r="D58" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>19</v>
-      </c>
-      <c r="B59" t="n">
-        <v>17</v>
-      </c>
-      <c r="C59" t="n">
-        <v>256.1581542719263</v>
-      </c>
-      <c r="D59" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>8</v>
-      </c>
-      <c r="B60" t="n">
-        <v>16</v>
-      </c>
-      <c r="C60" t="n">
-        <v>128.8448679614365</v>
-      </c>
-      <c r="D60" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>16</v>
-      </c>
-      <c r="B61" t="n">
-        <v>8</v>
-      </c>
-      <c r="C61" t="n">
-        <v>128.8448679614365</v>
-      </c>
-      <c r="D61" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>13</v>
-      </c>
-      <c r="B62" t="n">
-        <v>18</v>
-      </c>
-      <c r="C62" t="n">
-        <v>76.48529270389177</v>
-      </c>
-      <c r="D62" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>18</v>
-      </c>
-      <c r="B63" t="n">
-        <v>13</v>
-      </c>
-      <c r="C63" t="n">
-        <v>76.48529270389177</v>
-      </c>
-      <c r="D63" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>5</v>
-      </c>
-      <c r="B64" t="n">
-        <v>17</v>
-      </c>
-      <c r="C64" t="n">
-        <v>217.8164364780583</v>
-      </c>
-      <c r="D64" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>17</v>
-      </c>
-      <c r="B65" t="n">
-        <v>5</v>
-      </c>
-      <c r="C65" t="n">
-        <v>217.8164364780583</v>
-      </c>
-      <c r="D65" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>5</v>
-      </c>
-      <c r="B66" t="n">
-        <v>20</v>
-      </c>
-      <c r="C66" t="n">
-        <v>379.6761778147268</v>
-      </c>
-      <c r="D66" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>20</v>
-      </c>
-      <c r="B67" t="n">
-        <v>5</v>
-      </c>
-      <c r="C67" t="n">
-        <v>379.6761778147268</v>
-      </c>
-      <c r="D67" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>4</v>
-      </c>
-      <c r="B68" t="n">
-        <v>18</v>
-      </c>
-      <c r="C68" t="n">
-        <v>517.9044313384469</v>
-      </c>
-      <c r="D68" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>18</v>
-      </c>
-      <c r="B69" t="n">
-        <v>4</v>
-      </c>
-      <c r="C69" t="n">
-        <v>517.9044313384469</v>
-      </c>
-      <c r="D69" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>6</v>
-      </c>
-      <c r="B70" t="n">
-        <v>15</v>
-      </c>
-      <c r="C70" t="n">
-        <v>119.9416524815295</v>
-      </c>
-      <c r="D70" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>15</v>
-      </c>
-      <c r="B71" t="n">
-        <v>6</v>
-      </c>
-      <c r="C71" t="n">
-        <v>119.9416524815295</v>
-      </c>
-      <c r="D71" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>1</v>
-      </c>
-      <c r="B72" t="n">
-        <v>4</v>
-      </c>
-      <c r="C72" t="n">
-        <v>322.8699428562529</v>
-      </c>
-      <c r="D72" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>4</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>322.8699428562529</v>
-      </c>
-      <c r="D73" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>6</v>
-      </c>
-      <c r="B74" t="n">
-        <v>18</v>
-      </c>
-      <c r="C74" t="n">
-        <v>186.4001072961065</v>
-      </c>
-      <c r="D74" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>18</v>
-      </c>
-      <c r="B75" t="n">
-        <v>6</v>
-      </c>
-      <c r="C75" t="n">
-        <v>186.4001072961065</v>
-      </c>
-      <c r="D75" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>3</v>
-      </c>
-      <c r="B76" t="n">
-        <v>4</v>
-      </c>
-      <c r="C76" t="n">
-        <v>116.7604385055144</v>
-      </c>
-      <c r="D76" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>4</v>
-      </c>
-      <c r="B77" t="n">
-        <v>3</v>
-      </c>
-      <c r="C77" t="n">
-        <v>116.7604385055144</v>
-      </c>
-      <c r="D77" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>2</v>
-      </c>
-      <c r="B78" t="n">
-        <v>11</v>
-      </c>
-      <c r="C78" t="n">
-        <v>340.12350697945</v>
-      </c>
-      <c r="D78" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>11</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2</v>
-      </c>
-      <c r="C79" t="n">
-        <v>340.12350697945</v>
-      </c>
-      <c r="D79" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>8</v>
-      </c>
-      <c r="B80" t="n">
-        <v>15</v>
-      </c>
-      <c r="C80" t="n">
-        <v>67.00746227100382</v>
-      </c>
-      <c r="D80" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>15</v>
-      </c>
-      <c r="B81" t="n">
-        <v>8</v>
-      </c>
-      <c r="C81" t="n">
-        <v>67.00746227100382</v>
-      </c>
-      <c r="D81" t="n">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3850,50 +2621,50 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>936</v>
+        <v>325</v>
       </c>
       <c r="B2" t="n">
-        <v>668</v>
+        <v>113</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
         <v>9</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>622</v>
+        <v>1261</v>
       </c>
       <c r="B3" t="n">
-        <v>544</v>
+        <v>388</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>945</v>
+        <v>691</v>
       </c>
       <c r="B4" t="n">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -3901,163 +2672,163 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>833</v>
+        <v>302</v>
       </c>
       <c r="B5" t="n">
-        <v>362</v>
+        <v>547</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="B6" t="n">
-        <v>541</v>
+        <v>144</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>373</v>
+        <v>442</v>
       </c>
       <c r="B7" t="n">
-        <v>222</v>
+        <v>399</v>
       </c>
       <c r="C7" t="n">
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>549</v>
+        <v>1460</v>
       </c>
       <c r="B8" t="n">
-        <v>912</v>
+        <v>516</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>425</v>
+        <v>1210</v>
       </c>
       <c r="B9" t="n">
-        <v>340</v>
+        <v>502</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>817</v>
+        <v>1325</v>
       </c>
       <c r="B10" t="n">
-        <v>853</v>
+        <v>329</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>719</v>
+        <v>268</v>
       </c>
       <c r="B11" t="n">
-        <v>867</v>
+        <v>503</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>532</v>
+        <v>727</v>
       </c>
       <c r="B12" t="n">
-        <v>872</v>
+        <v>153</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>900</v>
+        <v>1008</v>
       </c>
       <c r="B13" t="n">
-        <v>903</v>
+        <v>340</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>356</v>
+        <v>815</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>546</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
@@ -4066,106 +2837,106 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>59</v>
+        <v>1266</v>
       </c>
       <c r="B15" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>358</v>
+        <v>540</v>
       </c>
       <c r="B16" t="n">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>345</v>
+        <v>872</v>
       </c>
       <c r="B17" t="n">
-        <v>441</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
         <v>3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>42</v>
+        <v>1233</v>
       </c>
       <c r="B18" t="n">
-        <v>753</v>
+        <v>151</v>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
         <v>8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>425</v>
+        <v>68</v>
       </c>
       <c r="B19" t="n">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>298</v>
+        <v>596</v>
       </c>
       <c r="B20" t="n">
-        <v>744</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -4173,19 +2944,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>47</v>
+        <v>1381</v>
       </c>
       <c r="B21" t="n">
-        <v>164</v>
+        <v>477</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4193,7 +2964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4221,16 +2992,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
       <c r="B3" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>N_F</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4255,13 +3059,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>N_F</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4275,7 +3079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4286,13 +3090,1115 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>travel time</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>300</v>
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>645.6972975009265</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>645.6972975009265</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>363.1886562105155</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>363.1886562105155</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="n">
+        <v>386.731172780266</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>386.731172780266</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>18</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>554.3870489107768</v>
+      </c>
+      <c r="D8" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>554.3870489107768</v>
+      </c>
+      <c r="D9" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>277.2183255125822</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>277.2183255125822</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" t="n">
+        <v>402.7319207611932</v>
+      </c>
+      <c r="D12" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>402.7319207611932</v>
+      </c>
+      <c r="D13" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>199.1506967098032</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="n">
+        <v>199.1506967098032</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="n">
+        <v>263.6854186336438</v>
+      </c>
+      <c r="D16" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>263.6854186336438</v>
+      </c>
+      <c r="D17" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>210.0690362714124</v>
+      </c>
+      <c r="D18" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>210.0690362714124</v>
+      </c>
+      <c r="D19" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>230.6382448771235</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>230.6382448771235</v>
+      </c>
+      <c r="D21" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>172.8178231549049</v>
+      </c>
+      <c r="D22" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>172.8178231549049</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>55.60575509783138</v>
+      </c>
+      <c r="D24" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>55.60575509783138</v>
+      </c>
+      <c r="D25" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" t="n">
+        <v>13</v>
+      </c>
+      <c r="C26" t="n">
+        <v>513.0009746579435</v>
+      </c>
+      <c r="D26" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>13</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>513.0009746579435</v>
+      </c>
+      <c r="D27" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>15</v>
+      </c>
+      <c r="B28" t="n">
+        <v>19</v>
+      </c>
+      <c r="C28" t="n">
+        <v>290.4496514027862</v>
+      </c>
+      <c r="D28" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n">
+        <v>15</v>
+      </c>
+      <c r="C29" t="n">
+        <v>290.4496514027862</v>
+      </c>
+      <c r="D29" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="n">
+        <v>18</v>
+      </c>
+      <c r="C30" t="n">
+        <v>147.6787053031005</v>
+      </c>
+      <c r="D30" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>18</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>147.6787053031005</v>
+      </c>
+      <c r="D31" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12</v>
+      </c>
+      <c r="C32" t="n">
+        <v>337.5351833513063</v>
+      </c>
+      <c r="D32" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>12</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11</v>
+      </c>
+      <c r="C33" t="n">
+        <v>337.5351833513063</v>
+      </c>
+      <c r="D33" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>116.2110149684616</v>
+      </c>
+      <c r="D34" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>116.2110149684616</v>
+      </c>
+      <c r="D35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>12</v>
+      </c>
+      <c r="B36" t="n">
+        <v>17</v>
+      </c>
+      <c r="C36" t="n">
+        <v>293.8468989116611</v>
+      </c>
+      <c r="D36" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>17</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12</v>
+      </c>
+      <c r="C37" t="n">
+        <v>293.8468989116611</v>
+      </c>
+      <c r="D37" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12</v>
+      </c>
+      <c r="C38" t="n">
+        <v>257.5131064625643</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>257.5131064625643</v>
+      </c>
+      <c r="D39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="n">
+        <v>11</v>
+      </c>
+      <c r="C40" t="n">
+        <v>107.2240644631605</v>
+      </c>
+      <c r="D40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>11</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>107.2240644631605</v>
+      </c>
+      <c r="D41" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" t="n">
+        <v>87.04596486914255</v>
+      </c>
+      <c r="D42" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>87.04596486914255</v>
+      </c>
+      <c r="D43" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>14</v>
+      </c>
+      <c r="B44" t="n">
+        <v>17</v>
+      </c>
+      <c r="C44" t="n">
+        <v>113.8859078200635</v>
+      </c>
+      <c r="D44" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>17</v>
+      </c>
+      <c r="B45" t="n">
+        <v>14</v>
+      </c>
+      <c r="C45" t="n">
+        <v>113.8859078200635</v>
+      </c>
+      <c r="D45" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="n">
+        <v>8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>250.3916931529479</v>
+      </c>
+      <c r="D46" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47" t="n">
+        <v>250.3916931529479</v>
+      </c>
+      <c r="D47" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>16</v>
+      </c>
+      <c r="B48" t="n">
+        <v>17</v>
+      </c>
+      <c r="C48" t="n">
+        <v>390.9232661277658</v>
+      </c>
+      <c r="D48" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>17</v>
+      </c>
+      <c r="B49" t="n">
+        <v>16</v>
+      </c>
+      <c r="C49" t="n">
+        <v>390.9232661277658</v>
+      </c>
+      <c r="D49" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="n">
+        <v>14</v>
+      </c>
+      <c r="C50" t="n">
+        <v>512.1640362227711</v>
+      </c>
+      <c r="D50" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" t="n">
+        <v>512.1640362227711</v>
+      </c>
+      <c r="D51" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>8</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13</v>
+      </c>
+      <c r="C52" t="n">
+        <v>397.4430776853461</v>
+      </c>
+      <c r="D52" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>13</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>397.4430776853461</v>
+      </c>
+      <c r="D53" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="n">
+        <v>20</v>
+      </c>
+      <c r="C54" t="n">
+        <v>88.10221336606703</v>
+      </c>
+      <c r="D54" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>20</v>
+      </c>
+      <c r="B55" t="n">
+        <v>7</v>
+      </c>
+      <c r="C55" t="n">
+        <v>88.10221336606703</v>
+      </c>
+      <c r="D55" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>13</v>
+      </c>
+      <c r="B56" t="n">
+        <v>15</v>
+      </c>
+      <c r="C56" t="n">
+        <v>377.0795672003457</v>
+      </c>
+      <c r="D56" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>15</v>
+      </c>
+      <c r="B57" t="n">
+        <v>13</v>
+      </c>
+      <c r="C57" t="n">
+        <v>377.0795672003457</v>
+      </c>
+      <c r="D57" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>12</v>
+      </c>
+      <c r="B58" t="n">
+        <v>13</v>
+      </c>
+      <c r="C58" t="n">
+        <v>282.2853166567471</v>
+      </c>
+      <c r="D58" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>13</v>
+      </c>
+      <c r="B59" t="n">
+        <v>12</v>
+      </c>
+      <c r="C59" t="n">
+        <v>282.2853166567471</v>
+      </c>
+      <c r="D59" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>9</v>
+      </c>
+      <c r="B60" t="n">
+        <v>20</v>
+      </c>
+      <c r="C60" t="n">
+        <v>158.2403235588199</v>
+      </c>
+      <c r="D60" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>20</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>158.2403235588199</v>
+      </c>
+      <c r="D61" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" t="n">
+        <v>8</v>
+      </c>
+      <c r="C62" t="n">
+        <v>124.8879497789919</v>
+      </c>
+      <c r="D62" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>8</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>124.8879497789919</v>
+      </c>
+      <c r="D63" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>9</v>
+      </c>
+      <c r="B64" t="n">
+        <v>14</v>
+      </c>
+      <c r="C64" t="n">
+        <v>293.0017064796722</v>
+      </c>
+      <c r="D64" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>14</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>293.0017064796722</v>
+      </c>
+      <c r="D65" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>12</v>
+      </c>
+      <c r="B66" t="n">
+        <v>16</v>
+      </c>
+      <c r="C66" t="n">
+        <v>365.2629190049272</v>
+      </c>
+      <c r="D66" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>16</v>
+      </c>
+      <c r="B67" t="n">
+        <v>12</v>
+      </c>
+      <c r="C67" t="n">
+        <v>365.2629190049272</v>
+      </c>
+      <c r="D67" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" t="n">
+        <v>19</v>
+      </c>
+      <c r="C68" t="n">
+        <v>106.8924693325026</v>
+      </c>
+      <c r="D68" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>19</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>106.8924693325026</v>
+      </c>
+      <c r="D69" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" t="n">
+        <v>17</v>
+      </c>
+      <c r="C70" t="n">
+        <v>238.6482767589156</v>
+      </c>
+      <c r="D70" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>17</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="n">
+        <v>238.6482767589156</v>
+      </c>
+      <c r="D71" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" t="n">
+        <v>16</v>
+      </c>
+      <c r="C72" t="n">
+        <v>188.0478662468681</v>
+      </c>
+      <c r="D72" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>16</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" t="n">
+        <v>188.0478662468681</v>
+      </c>
+      <c r="D73" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>14</v>
+      </c>
+      <c r="B74" t="n">
+        <v>16</v>
+      </c>
+      <c r="C74" t="n">
+        <v>396.1275047254356</v>
+      </c>
+      <c r="D74" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>16</v>
+      </c>
+      <c r="B75" t="n">
+        <v>14</v>
+      </c>
+      <c r="C75" t="n">
+        <v>396.1275047254356</v>
+      </c>
+      <c r="D75" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>8</v>
+      </c>
+      <c r="B76" t="n">
+        <v>12</v>
+      </c>
+      <c r="C76" t="n">
+        <v>258.9362855993729</v>
+      </c>
+      <c r="D76" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>12</v>
+      </c>
+      <c r="B77" t="n">
+        <v>8</v>
+      </c>
+      <c r="C77" t="n">
+        <v>258.9362855993729</v>
+      </c>
+      <c r="D77" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>16</v>
+      </c>
+      <c r="B78" t="n">
+        <v>19</v>
+      </c>
+      <c r="C78" t="n">
+        <v>276.0072462816873</v>
+      </c>
+      <c r="D78" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>19</v>
+      </c>
+      <c r="B79" t="n">
+        <v>16</v>
+      </c>
+      <c r="C79" t="n">
+        <v>276.0072462816873</v>
+      </c>
+      <c r="D79" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
